--- a/Doble_Rendija/Actividad 1 doble rendija der.xlsx
+++ b/Doble_Rendija/Actividad 1 doble rendija der.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\Lab_intermedio\COD-INTERMEDIO\Doble_Rendija\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5494F364-58B6-48C9-B17A-3B474BB531A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4E2E53-35B3-4CB0-8EF3-7E57B2747979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A9884A9E-B69E-4867-89E4-CDFDE80A03CC}"/>
   </bookViews>
@@ -111,6 +111,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Rendija</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> Der</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1815,7 +1845,7 @@
   <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
